--- a/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111#NISATEKXX/nisatek/adtweb/2.0/accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\nisatek\it-fse-accreditamento-adtweb-2.0\GATEWAY\A1#111#NISATEKXX\nisatek\adtweb\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0A449D-D1F8-4F57-A97A-A833C51A9BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF373C-8A86-46D6-AC5C-4B64D2AB0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7477,11 +7477,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I218" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M397" sqref="M397:M398"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,7 +7736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>16</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>17</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>18</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>23</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>24</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>25</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>26</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>27</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>28</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="150.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>35</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>36</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>40</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>41</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>42</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>43</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>46</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>49</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>51</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>53</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>59</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>60</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>75</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>76</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>77</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>78</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>79</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>80</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>81</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>82</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>83</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>84</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>85</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>86</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>87</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
         <v>88</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
         <v>89</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
         <v>90</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
         <v>91</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
         <v>92</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
         <v>93</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
         <v>94</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
         <v>95</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
         <v>96</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
         <v>97</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
         <v>98</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
         <v>99</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
         <v>100</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
         <v>101</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
         <v>102</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
         <v>103</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
         <v>104</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
         <v>105</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
         <v>106</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
         <v>107</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
         <v>108</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
         <v>109</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
         <v>110</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
         <v>111</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
         <v>112</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
         <v>113</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
         <v>114</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
         <v>115</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
         <v>116</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
         <v>117</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
         <v>118</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20">
         <v>119</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20">
         <v>120</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="20">
         <v>121</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="20">
         <v>122</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="20">
         <v>123</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
         <v>124</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="20">
         <v>125</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="20">
         <v>126</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20">
         <v>127</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20">
         <v>128</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="20">
         <v>129</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20">
         <v>130</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="20">
         <v>131</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20">
         <v>132</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
         <v>133</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
         <v>134</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="20">
         <v>135</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20">
         <v>136</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="20">
         <v>137</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="20">
         <v>138</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="20">
         <v>139</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="20">
         <v>140</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="20">
         <v>141</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="20">
         <v>142</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="20">
         <v>143</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20">
         <v>144</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20">
         <v>145</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20">
         <v>146</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20">
         <v>147</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20">
         <v>148</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20">
         <v>149</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20">
         <v>150</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20">
         <v>151</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20">
         <v>152</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20">
         <v>153</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
         <v>154</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
         <v>155</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="20">
         <v>156</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20">
         <v>157</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20">
         <v>158</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
         <v>159</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20">
         <v>160</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
         <v>161</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
         <v>162</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20">
         <v>163</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
         <v>164</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20">
         <v>165</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20">
         <v>166</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20">
         <v>167</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
         <v>168</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
         <v>169</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20">
         <v>170</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
         <v>171</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20">
         <v>172</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="165.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="20">
         <v>173</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="105.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
         <v>174</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="20">
         <v>175</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="20">
         <v>176</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="20">
         <v>177</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="20">
         <v>178</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
         <v>179</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
         <v>180</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="20">
         <v>181</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="20">
         <v>182</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="20">
         <v>183</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20">
         <v>184</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20">
         <v>185</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20">
         <v>186</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20">
         <v>187</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20">
         <v>188</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20">
         <v>189</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20">
         <v>190</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="20">
         <v>192</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20">
         <v>193</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20">
         <v>194</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20">
         <v>195</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20">
         <v>196</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="210.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20">
         <v>197</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="20">
         <v>198</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="20">
         <v>199</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="20">
         <v>200</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="20">
         <v>201</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="20">
         <v>202</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="20">
         <v>203</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20">
         <v>204</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20">
         <v>205</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="285.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="20">
         <v>206</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="20">
         <v>207</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="135.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="20">
         <v>211</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20">
         <v>220</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20">
         <v>221</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20">
         <v>222</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20">
         <v>223</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20">
         <v>224</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20">
         <v>225</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20">
         <v>226</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20">
         <v>227</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20">
         <v>228</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20">
         <v>229</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20">
         <v>230</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20">
         <v>231</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20">
         <v>232</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20">
         <v>233</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20">
         <v>234</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20">
         <v>235</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20">
         <v>236</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20">
         <v>237</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20">
         <v>238</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20">
         <v>239</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20">
         <v>240</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20">
         <v>241</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20">
         <v>242</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20">
         <v>243</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20">
         <v>244</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20">
         <v>245</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20">
         <v>246</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="20">
         <v>247</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="20">
         <v>248</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="20">
         <v>249</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="20">
         <v>250</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="20">
         <v>251</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="20">
         <v>252</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="20">
         <v>253</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="20">
         <v>254</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="20">
         <v>255</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="20">
         <v>256</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="20">
         <v>257</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="20">
         <v>258</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="20">
         <v>259</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="20">
         <v>260</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="20">
         <v>261</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="20">
         <v>262</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="20">
         <v>263</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="20">
         <v>264</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="20">
         <v>265</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="20">
         <v>266</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="20">
         <v>267</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="20">
         <v>268</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="20">
         <v>269</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="20">
         <v>270</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="20">
         <v>271</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="20">
         <v>272</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="20">
         <v>273</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="20">
         <v>274</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="20">
         <v>275</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="20">
         <v>276</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="20">
         <v>277</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="20">
         <v>278</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="20">
         <v>279</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="20">
         <v>280</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="20">
         <v>281</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="20">
         <v>282</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="20">
         <v>283</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="20">
         <v>284</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="20">
         <v>285</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="20">
         <v>286</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="20">
         <v>287</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="20">
         <v>288</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="20">
         <v>289</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="20">
         <v>290</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="20">
         <v>291</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="20">
         <v>292</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="20">
         <v>293</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="20">
         <v>294</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="20">
         <v>295</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20">
         <v>296</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="20">
         <v>297</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="20">
         <v>298</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20">
         <v>299</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="20">
         <v>300</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="20">
         <v>301</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20">
         <v>302</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="20">
         <v>303</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="20">
         <v>304</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="20">
         <v>305</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="20">
         <v>306</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="20">
         <v>307</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="20">
         <v>308</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="20">
         <v>309</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="20">
         <v>310</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20">
         <v>311</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="20">
         <v>312</v>
       </c>
@@ -19924,7 +19924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="20">
         <v>313</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="20">
         <v>314</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="20">
         <v>315</v>
       </c>
@@ -20038,7 +20038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="20">
         <v>316</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="20">
         <v>317</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="20">
         <v>318</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="20">
         <v>319</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="20">
         <v>320</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="20">
         <v>321</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="20">
         <v>322</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="20">
         <v>323</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="285.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="20">
         <v>324</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="240.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="20">
         <v>325</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="300.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="20">
         <v>326</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="270.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="20">
         <v>327</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="20">
         <v>328</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="20">
         <v>329</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="20">
         <v>330</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="20">
         <v>331</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="20">
         <v>332</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="20">
         <v>333</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="20">
         <v>334</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="20">
         <v>335</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="20">
         <v>336</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20">
         <v>337</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="20">
         <v>338</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="20">
         <v>339</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="20">
         <v>340</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="20">
         <v>341</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="20">
         <v>342</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="20">
         <v>343</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="20">
         <v>344</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="20">
         <v>345</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="20">
         <v>346</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="20">
         <v>347</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" ht="285.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="20">
         <v>348</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="20">
         <v>349</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="20">
         <v>350</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="20">
         <v>351</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="20">
         <v>352</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="20">
         <v>353</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="255.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="20">
         <v>354</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" ht="225.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="20">
         <v>355</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="20">
         <v>356</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="20">
         <v>357</v>
       </c>
@@ -21714,7 +21714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="20">
         <v>358</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="20">
         <v>359</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="20">
         <v>360</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="20">
         <v>361</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="20">
         <v>362</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="20">
         <v>363</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="20">
         <v>364</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="20">
         <v>365</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="20">
         <v>366</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20">
         <v>367</v>
       </c>
@@ -22094,7 +22094,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20">
         <v>368</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" ht="150.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20">
         <v>369</v>
       </c>
@@ -22176,7 +22176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20">
         <v>370</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20">
         <v>371</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20">
         <v>372</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20">
         <v>373</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20">
         <v>374</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20">
         <v>375</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -27095,14 +27095,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ELIMINAZIONE"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="LDO"/>
+        <filter val="CERT_VAC"/>
+        <filter val="LAB"/>
+        <filter val="PSS"/>
+        <filter val="RAD"/>
+        <filter val="RSA"/>
+        <filter val="SING_VAC"/>
+        <filter val="VPS"/>
       </filters>
     </filterColumn>
   </autoFilter>
